--- a/helping a friend/data/Data.xlsx
+++ b/helping a friend/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27700" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27700" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S282"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -18396,8 +18396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18736,10 +18736,10 @@
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>97</v>
       </c>
     </row>
